--- a/プロジェクト管理/03_反復計画書.xlsx
+++ b/プロジェクト管理/03_反復計画書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2E222E-2989-4441-A9F6-1C9F12FFB17E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FAF830-E806-4227-9571-5ABBFFAADC26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -442,22 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残りの0.5日は調整時間</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①チケット予約システムの基本機能の作成
 ②漫画の口コミ投稿閲覧システムの作成
 ・データベースでユーザ情報、口コミ情報の管理
@@ -516,8 +500,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>反復計画書(新規)
-WBS&amp;ガントチャート(新規)
+    <t>GUIへの拡張(ID,パスワード,新規の口コミの入力とデータベースにある口コミの出力)</t>
+    <rPh sb="17" eb="19">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書(更新)
+WBS&amp;ガントチャート(更新)
 要求仕様書(新規)
 システム分析書(新規)
 設計仕様書(新規)
@@ -530,10 +533,10 @@
       <t>ケイカクショ</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>シンキ</t>
+      <t>コウシン</t>
     </rPh>
     <rPh sb="22" eb="24">
-      <t>シンキ</t>
+      <t>コウシン</t>
     </rPh>
     <rPh sb="26" eb="28">
       <t>ヨウキュウ</t>
@@ -576,25 +579,6 @@
     </rPh>
     <rPh sb="81" eb="83">
       <t>シンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GUIへの拡張(ID,パスワード,新規の口コミの入力とデータベースにある口コミの出力)</t>
-    <rPh sb="17" eb="19">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1470,7 +1454,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1487,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -1538,10 +1522,10 @@
         <v>43984</v>
       </c>
       <c r="D6" s="32">
-        <v>43987</v>
+        <v>43990</v>
       </c>
       <c r="E6" s="33">
-        <v>43992</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1553,10 +1537,10 @@
         <v>43986</v>
       </c>
       <c r="D7" s="32">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="E7" s="33">
-        <v>43994</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1583,10 +1567,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1611,9 +1595,7 @@
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -1896,6 +1878,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2079,12 +2067,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
@@ -2094,14 +2076,35 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28F83536-AE8D-4C00-B463-D435459F7B34}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28F83536-AE8D-4C00-B463-D435459F7B34}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>